--- a/line.xlsx
+++ b/line.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Max\Applicazione Line Dance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\line-dance-library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD03F62F-04DD-45BB-B5BD-00CA6DCAD015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B113744D-11B3-496E-A0F0-DC2ED4E94276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1875" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LineDance" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="245">
   <si>
     <t>Titolo del Ballo</t>
   </si>
@@ -744,13 +744,28 @@
   </si>
   <si>
     <t>https://youtu.be/-zLml4bc_Gs?si=IVVMNInxpUgdvzIU</t>
+  </si>
+  <si>
+    <t>HEAD OR TAILS (Flip a Quarter)</t>
+  </si>
+  <si>
+    <t>HEAD OR TAILS</t>
+  </si>
+  <si>
+    <t>She Had Me At Heads Carolina</t>
+  </si>
+  <si>
+    <t>Cole Swindell</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pW98g-Fb-EU?si=81a5fULkBEwyLJw8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +843,12 @@
       <name val="Rockwell"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -871,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -910,6 +931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,11 +1242,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,6 +2541,29 @@
       </c>
       <c r="G56" s="13" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6">
+        <v>59</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2630,9 +2677,10 @@
     <hyperlink ref="G55" r:id="rId107" xr:uid="{245CDE2B-5DA1-4109-A2A8-F1FDA8F175D0}"/>
     <hyperlink ref="D56" r:id="rId108" xr:uid="{51787D35-C65F-47CF-818A-93199689F8F4}"/>
     <hyperlink ref="G56" r:id="rId109" xr:uid="{AB8CC97E-C45F-42C3-B5E3-864EAFC7F42B}"/>
+    <hyperlink ref="G57" r:id="rId110" xr:uid="{10BC0E1B-4DC6-46F1-896A-EE64766BD16A}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId110"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId111"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="16383" man="1"/>
     <brk id="52" max="16383" man="1"/>

--- a/line.xlsx
+++ b/line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\line-dance-library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B113744D-11B3-496E-A0F0-DC2ED4E94276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C9E790-D025-4B02-AA6A-460742E233C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1875" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LineDance" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,12 +843,6 @@
       <name val="Rockwell"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Rockwell"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -892,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -931,9 +925,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2544,7 @@
       <c r="C57" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -2678,9 +2669,10 @@
     <hyperlink ref="D56" r:id="rId108" xr:uid="{51787D35-C65F-47CF-818A-93199689F8F4}"/>
     <hyperlink ref="G56" r:id="rId109" xr:uid="{AB8CC97E-C45F-42C3-B5E3-864EAFC7F42B}"/>
     <hyperlink ref="G57" r:id="rId110" xr:uid="{10BC0E1B-4DC6-46F1-896A-EE64766BD16A}"/>
+    <hyperlink ref="D57" r:id="rId111" xr:uid="{A80E05F8-9940-44D8-BF8B-B017FB2A3EBE}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId111"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId112"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="16383" man="1"/>
     <brk id="52" max="16383" man="1"/>

--- a/line.xlsx
+++ b/line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\line-dance-library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C9E790-D025-4B02-AA6A-460742E233C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65EC0B4-063E-4D83-96CE-B3B3023D403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LineDance" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="248">
   <si>
     <t>Titolo del Ballo</t>
   </si>
@@ -759,6 +759,15 @@
   </si>
   <si>
     <t>https://youtu.be/pW98g-Fb-EU?si=81a5fULkBEwyLJw8</t>
+  </si>
+  <si>
+    <t>MY PEOPLE </t>
+  </si>
+  <si>
+    <t>https://youtu.be/p_Uyrmm_ww8?si=JgBA2D8oXKqSN2hB</t>
+  </si>
+  <si>
+    <t>LITTLE BURRITO</t>
   </si>
 </sst>
 </file>
@@ -1233,11 +1242,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="6">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>180</v>
@@ -2240,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>189</v>
@@ -2263,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="6">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>181</v>
@@ -2286,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="6">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>182</v>
@@ -2309,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>190</v>
@@ -2332,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>183</v>
@@ -2355,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>188</v>
@@ -2378,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>192</v>
@@ -2401,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>187</v>
@@ -2424,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>218</v>
@@ -2447,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>225</v>
@@ -2470,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="6">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>229</v>
@@ -2493,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="6">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>232</v>
@@ -2516,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>237</v>
@@ -2539,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>240</v>
@@ -2555,6 +2564,29 @@
       </c>
       <c r="G57" s="13" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6">
+        <v>57</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2670,9 +2702,11 @@
     <hyperlink ref="G56" r:id="rId109" xr:uid="{AB8CC97E-C45F-42C3-B5E3-864EAFC7F42B}"/>
     <hyperlink ref="G57" r:id="rId110" xr:uid="{10BC0E1B-4DC6-46F1-896A-EE64766BD16A}"/>
     <hyperlink ref="D57" r:id="rId111" xr:uid="{A80E05F8-9940-44D8-BF8B-B017FB2A3EBE}"/>
+    <hyperlink ref="D58" r:id="rId112" xr:uid="{837E259D-FAA1-49E2-AA9D-90D51DB996C5}"/>
+    <hyperlink ref="G58" r:id="rId113" xr:uid="{40EB2998-F842-4494-BC1E-3456FD8CC65D}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId112"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId114"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="16383" man="1"/>
     <brk id="52" max="16383" man="1"/>
